--- a/sensor_char/rangefinder_data.xlsx
+++ b/sensor_char/rangefinder_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinng/Documents/Github/roborodentia2017/sensor_char/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\roborodentia2017\sensor_char\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="32900" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="705" yWindow="465" windowWidth="32895" windowHeight="20535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Partial data" sheetId="1" r:id="rId1"/>
     <sheet name="Full data" sheetId="3" r:id="rId2"/>
     <sheet name="Raw data" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>True distance (mm)</t>
   </si>
@@ -75,11 +75,20 @@
   <si>
     <t>MSE (cal)(full)</t>
   </si>
+  <si>
+    <t>Calibrated</t>
+  </si>
+  <si>
+    <t>Uncalibrated</t>
+  </si>
+  <si>
+    <t>Sensor std. dev (mm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -130,12 +139,851 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Measured vs Actual Distance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Partial data'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Measured distance (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Partial data'!$B$2:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Partial data'!$C$2:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>659</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B559-477D-987C-B4391DAFA693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Partial data'!$S$3:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Partial data'!$T$3:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B559-477D-987C-B4391DAFA693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1351257648"/>
+        <c:axId val="1351078976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1351257648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Actual Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351078976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1351078976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Uncalibrated Measured Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351257648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -190,616 +1038,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Partial data'!$C$1</c:f>
+              <c:f>'Partial data'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Measured distance (mm)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Partial data'!$B$2:$B$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>310.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>320.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>340.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>350.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>370.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>380.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>390.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>410.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>430.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>480.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>530.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>580.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>630.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>680.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>730.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>780.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>830.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>880.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>930.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Partial data'!$C$2:$C$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="58"/>
-                <c:pt idx="0">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>107.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>168.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>178.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>190.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>199.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>209.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>219.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>230.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>240.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>251.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>262.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>273.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>284.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>295.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>306.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>316.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>327.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>338.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>348.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>358.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>368.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>379.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>391.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>401.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>412.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>422.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>432.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>442.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>452.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>505.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>557.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>607.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>659.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>710.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>761.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>811.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>861.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>910.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>960.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1351257648"/>
-        <c:axId val="1351078976"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1351257648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1351078976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1351078976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1351257648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Partial data'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Error squared calibrated (mm^2)</c:v>
+                  <c:v>Calibrated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -833,339 +1076,343 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190.0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210.0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220.0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230.0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240.0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>260.0</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270.0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>290.0</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>320.0</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>330.0</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>340.0</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>350.0</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>370.0</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>380.0</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>390.0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>410.0</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>420.0</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>430.0</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>480.0</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>530.0</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>580.0</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>630.0</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>680.0</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>730.0</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>780.0</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>830.0</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>880.0</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>930.0</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Partial data'!$G$2:$G$54</c:f>
+              <c:f>'Partial data'!$H$2:$H$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="53"/>
                 <c:pt idx="0">
-                  <c:v>6.512458239235735</c:v>
+                  <c:v>6.5124582392357349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.87972413593055</c:v>
+                  <c:v>6.8797241359305508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.938183556374174</c:v>
+                  <c:v>7.9381835563741738</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.089685836911479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.035317462066877</c:v>
+                  <c:v>3.5317462066877039E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.269779659673937</c:v>
+                  <c:v>1.2697796596739366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.180330864277946</c:v>
+                  <c:v>2.1803308642779466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.335531276206568</c:v>
+                  <c:v>3.3355312762065683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.735380895459706</c:v>
+                  <c:v>4.7353808954597065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.354968402192769</c:v>
+                  <c:v>0.35496840219276882</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.269027755939744</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.40282499716666</c:v>
+                  <c:v>10.402824997166661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.812441106475779</c:v>
+                  <c:v>6.8124411064757791</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.979185642834685</c:v>
+                  <c:v>3.9791856428346848</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.903058606243377</c:v>
+                  <c:v>1.9030586062433767</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.990351374675531</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.322293350432264</c:v>
+                  <c:v>4.3222933504322647</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.248713462562714</c:v>
+                  <c:v>0.2487134625627139</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.288732243852713</c:v>
+                  <c:v>3.2887322438527131</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6795880742187</c:v>
+                  <c:v>4.6795880742187004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.31509311190937</c:v>
+                  <c:v>6.3150931119093707</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3.601300129218767</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.051069814194234</c:v>
+                  <c:v>5.0510698141942347</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.664020698513637</c:v>
+                  <c:v>2.6640206985136374</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.034100009882826</c:v>
+                  <c:v>1.0341000098828264</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.161307748301802</c:v>
+                  <c:v>0.16130774830180231</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.045643913770565</c:v>
+                  <c:v>4.5643913770565057E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.687108506289115</c:v>
+                  <c:v>0.68710850628911468</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.085701525857451</c:v>
+                  <c:v>2.0857015258574512</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.197813057918813</c:v>
+                  <c:v>1.1978130579188129</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.923149944497155</c:v>
+                  <c:v>2.9231499444971552</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.405615258125285</c:v>
+                  <c:v>5.4056152581252848</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.901606877431664</c:v>
+                  <c:v>3.9016068774316639</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.642247704062622</c:v>
+                  <c:v>2.6422477040626222</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.627537738018159</c:v>
+                  <c:v>1.6275377380181595</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.575977798576732</c:v>
+                  <c:v>3.5759777985767327</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.05010684700705</c:v>
+                  <c:v>12.050106847007045</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.74424320084324</c:v>
+                  <c:v>9.7442432008432398</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.96406854255117</c:v>
+                  <c:v>13.964068542551175</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.47246954367217</c:v>
+                  <c:v>11.472469543672167</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.225519752117738</c:v>
+                  <c:v>9.225519752117739</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.223219167887891</c:v>
+                  <c:v>7.2232191678878905</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.46556779098262</c:v>
+                  <c:v>5.4655677909826208</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.13953716585229</c:v>
+                  <c:v>12.139537165852285</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13.43579692882129</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.673894336284019</c:v>
+                  <c:v>3.6738943362840186</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.401788462366931</c:v>
+                  <c:v>4.4017884623669312</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.727443125026393</c:v>
+                  <c:v>1.7274431250263935</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.28153705161096</c:v>
+                  <c:v>0.28153705161095982</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.483879844243564</c:v>
+                  <c:v>1.4838798442435643</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.80245281998997</c:v>
+                  <c:v>8.8024528199899716</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>32.26995000907118</c:v>
+                  <c:v>32.269950009071181</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>55.19615218786842</c:v>
+                  <c:v>55.196152187868421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF22-482A-8C7A-60971C5A7DCC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1378,7 +1625,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1391,6 +1638,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Squared Error for Uncalibrated vs. Calibrated</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1402,11 +1705,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Partial data'!$G$1</c:f>
+              <c:f>'Partial data'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Error squared calibrated (mm^2)</c:v>
+                  <c:v>Calibrated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1440,347 +1743,352 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190.0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210.0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220.0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230.0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240.0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>260.0</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270.0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>290.0</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>320.0</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>330.0</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>340.0</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>350.0</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>370.0</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>380.0</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>390.0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>410.0</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>420.0</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>430.0</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>480.0</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>530.0</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>580.0</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>630.0</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>680.0</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>730.0</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>780.0</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>830.0</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>880.0</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>930.0</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Partial data'!$G$2:$G$59</c:f>
+              <c:f>'Partial data'!$H$2:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>6.512458239235735</c:v>
+                  <c:v>6.5124582392357349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.87972413593055</c:v>
+                  <c:v>6.8797241359305508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.938183556374174</c:v>
+                  <c:v>7.9381835563741738</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.089685836911479</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.035317462066877</c:v>
+                  <c:v>3.5317462066877039E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.269779659673937</c:v>
+                  <c:v>1.2697796596739366</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.180330864277946</c:v>
+                  <c:v>2.1803308642779466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.335531276206568</c:v>
+                  <c:v>3.3355312762065683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.735380895459706</c:v>
+                  <c:v>4.7353808954597065</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.354968402192769</c:v>
+                  <c:v>0.35496840219276882</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.269027755939744</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.40282499716666</c:v>
+                  <c:v>10.402824997166661</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.812441106475779</c:v>
+                  <c:v>6.8124411064757791</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.979185642834685</c:v>
+                  <c:v>3.9791856428346848</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.903058606243377</c:v>
+                  <c:v>1.9030586062433767</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.990351374675531</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.322293350432264</c:v>
+                  <c:v>4.3222933504322647</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.248713462562714</c:v>
+                  <c:v>0.2487134625627139</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.288732243852713</c:v>
+                  <c:v>3.2887322438527131</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6795880742187</c:v>
+                  <c:v>4.6795880742187004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.31509311190937</c:v>
+                  <c:v>6.3150931119093707</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3.601300129218767</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.051069814194234</c:v>
+                  <c:v>5.0510698141942347</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.664020698513637</c:v>
+                  <c:v>2.6640206985136374</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.034100009882826</c:v>
+                  <c:v>1.0341000098828264</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.161307748301802</c:v>
+                  <c:v>0.16130774830180231</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.045643913770565</c:v>
+                  <c:v>4.5643913770565057E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.687108506289115</c:v>
+                  <c:v>0.68710850628911468</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.085701525857451</c:v>
+                  <c:v>2.0857015258574512</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.197813057918813</c:v>
+                  <c:v>1.1978130579188129</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.923149944497155</c:v>
+                  <c:v>2.9231499444971552</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.405615258125285</c:v>
+                  <c:v>5.4056152581252848</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.901606877431664</c:v>
+                  <c:v>3.9016068774316639</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.642247704062622</c:v>
+                  <c:v>2.6422477040626222</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.627537738018159</c:v>
+                  <c:v>1.6275377380181595</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.575977798576732</c:v>
+                  <c:v>3.5759777985767327</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.05010684700705</c:v>
+                  <c:v>12.050106847007045</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.74424320084324</c:v>
+                  <c:v>9.7442432008432398</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.96406854255117</c:v>
+                  <c:v>13.964068542551175</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.47246954367217</c:v>
+                  <c:v>11.472469543672167</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.225519752117738</c:v>
+                  <c:v>9.225519752117739</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.223219167887891</c:v>
+                  <c:v>7.2232191678878905</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.46556779098262</c:v>
+                  <c:v>5.4655677909826208</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.13953716585229</c:v>
+                  <c:v>12.139537165852285</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13.43579692882129</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.673894336284019</c:v>
+                  <c:v>3.6738943362840186</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.401788462366931</c:v>
+                  <c:v>4.4017884623669312</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.727443125026393</c:v>
+                  <c:v>1.7274431250263935</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.28153705161096</c:v>
+                  <c:v>0.28153705161095982</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.483879844243564</c:v>
+                  <c:v>1.4838798442435643</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.80245281998997</c:v>
+                  <c:v>8.8024528199899716</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>32.26995000907118</c:v>
+                  <c:v>32.269950009071181</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>55.19615218786842</c:v>
+                  <c:v>55.196152187868421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF43-4F97-9261-99D7D95712FE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Partial data'!$F$1</c:f>
+              <c:f>'Partial data'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Error squared no cal (mm^2)</c:v>
+                  <c:v>Uncalibrated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1814,336 +2122,341 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190.0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210.0</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220.0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230.0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240.0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250.0</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>260.0</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>270.0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280.0</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>290.0</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>300.0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>310.0</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>320.0</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>330.0</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>340.0</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>350.0</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>360.0</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>370.0</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>380.0</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>390.0</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>410.0</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>420.0</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>430.0</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>480.0</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>530.0</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>580.0</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>630.0</c:v>
+                  <c:v>630</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>680.0</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>730.0</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>780.0</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>830.0</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>880.0</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>930.0</c:v>
+                  <c:v>930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Partial data'!$F$2:$F$59</c:f>
+              <c:f>'Partial data'!$G$2:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>81.0</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>121.0</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>144.0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>169.0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>196.0</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>225.0</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>256.0</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>289.0</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>324.0</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>324.0</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>324.0</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>324.0</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>361.0</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>441.0</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>441.0</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>484.0</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>484.0</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>484.0</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>484.0</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>484.0</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>625.0</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>729.0</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>729.0</c:v>
+                  <c:v>729</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>841.0</c:v>
+                  <c:v>841</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>961.0</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>961.0</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>961.0</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>900.0</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF43-4F97-9261-99D7D95712FE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2177,6 +2490,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Actual Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2239,6 +2608,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Squared Error (mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2289,7 +2722,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2320,6 +2753,753 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rangefinder Standard Deviation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Partial data'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensor std. dev (mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Partial data'!$B$2:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Partial data'!$E$2:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>1.7888543819998317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8284271247461903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6457513110645907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6457513110645907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1213203435596424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1213203435596424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.16794833886788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8165902124584949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8165902124584949</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8439088914585775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8973665961010275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8973665961010275</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8708286933869707</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8973665961010275</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0493901531919199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9235384061671346</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9493588689617927</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0248456731316584</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9235384061671346</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.16794833886788</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0976176963403033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1213203435596424</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1213203435596424</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1908902300206643</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.16794833886788</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3452078799117149</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4083189157584592</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4289915602982237</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4494897427831779</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.4289915602982237</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7018512172212592</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.7928480087537881</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7018512172212592</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8809720581775866</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8982753492378879</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.082207001484488</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3466401061363023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.271085446759225</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5496478698597698</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.646916505762094</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3127717305695654</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6904157598234297</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.9581876439064922</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.4807406984078604</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.5498344352707498</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.3666002653407556</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.3808315196468595</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.038404810405298</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C787-4D39-8304-88DCFA942968}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="620815216"/>
+        <c:axId val="620814800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="620815216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Actual Distance (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620814800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="620814800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Standard Deviation (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620815216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2477,6 +3657,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4025,20 +5245,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>724759</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>77230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>506284</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>128030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4059,13 +5795,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>744999</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>140227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>357237</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>39788</xdr:rowOff>
@@ -4089,13 +5825,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>703775</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>135263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>316013</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>34823</xdr:rowOff>
@@ -4114,6 +5850,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>773206</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>90768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4385,23 +6151,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4415,21 +6182,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>B2+$I$2</f>
+        <f t="shared" ref="A2:A33" si="0">B2+$J$2</f>
         <v>367</v>
       </c>
       <c r="B2">
@@ -4442,24 +6212,28 @@
         <v>3.2</v>
       </c>
       <c r="E2">
-        <f>C2*$I$8+$I$11</f>
+        <f>SQRT(D2)</f>
+        <v>1.7888543819998317</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F33" si="1">C2*$J$8+$J$11</f>
         <v>12.551951848925786</v>
       </c>
-      <c r="F2">
-        <f>(C2-B2)^2</f>
+      <c r="G2">
+        <f t="shared" ref="G2:G33" si="2">(C2-B2)^2</f>
         <v>49</v>
       </c>
-      <c r="G2">
-        <f>(E2-B2)^2</f>
+      <c r="H2">
+        <f t="shared" ref="H2:H33" si="3">(F2-B2)^2</f>
         <v>6.5124582392357349</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>B3+$I$2</f>
+        <f t="shared" si="0"/>
         <v>377</v>
       </c>
       <c r="B3">
@@ -4472,22 +6246,32 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <f>C3*$I$8+$I$11</f>
+        <f t="shared" ref="E3:E54" si="4">SQRT(D3)</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
         <v>17.377077176901587</v>
       </c>
-      <c r="F3">
-        <f>(C3-B3)^2</f>
+      <c r="G3">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G3">
-        <f>(E3-B3)^2</f>
+      <c r="H3">
+        <f t="shared" si="3"/>
         <v>6.8797241359305508</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1"/>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>B4+$I$2</f>
+        <f t="shared" si="0"/>
         <v>387</v>
       </c>
       <c r="B4">
@@ -4500,27 +6284,37 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <f>C4*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
         <v>32.81747822642415</v>
       </c>
-      <c r="F4">
-        <f>(C4-B4)^2</f>
+      <c r="G4">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="G4">
-        <f>(E4-B4)^2</f>
+      <c r="H4">
+        <f t="shared" si="3"/>
         <v>7.9381835563741738</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="S4">
+        <v>1000</v>
+      </c>
+      <c r="T4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>B5+$I$2</f>
+        <f t="shared" si="0"/>
         <v>397</v>
       </c>
       <c r="B5">
@@ -4533,24 +6327,28 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <f>C5*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
         <v>42.467728882375752</v>
       </c>
-      <c r="F5">
-        <f>(C5-B5)^2</f>
+      <c r="G5">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="G5">
-        <f>(E5-B5)^2</f>
+      <c r="H5">
+        <f t="shared" si="3"/>
         <v>6.089685836911479</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>B6+$I$2</f>
+        <f t="shared" si="0"/>
         <v>407</v>
       </c>
       <c r="B6">
@@ -4563,21 +6361,25 @@
         <v>4.5</v>
       </c>
       <c r="E6">
-        <f>C6*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.1213203435596424</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
         <v>50.187929407137034</v>
       </c>
-      <c r="F6">
-        <f>(C6-B6)^2</f>
+      <c r="G6">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="G6">
-        <f>(E6-B6)^2</f>
+      <c r="H6">
+        <f t="shared" si="3"/>
         <v>3.5317462066877039E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>B7+$I$2</f>
+        <f t="shared" si="0"/>
         <v>417</v>
       </c>
       <c r="B7">
@@ -4590,24 +6392,28 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <f>C7*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
         <v>58.873154997493472</v>
       </c>
-      <c r="F7">
-        <f>(C7-B7)^2</f>
+      <c r="G7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G7">
-        <f>(E7-B7)^2</f>
+      <c r="H7">
+        <f t="shared" si="3"/>
         <v>1.2697796596739366</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>B8+$I$2</f>
+        <f t="shared" si="0"/>
         <v>427</v>
       </c>
       <c r="B8">
@@ -4620,25 +6426,29 @@
         <v>4.5</v>
       </c>
       <c r="E8">
-        <f>C8*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.1213203435596424</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
         <v>68.523405653445081</v>
       </c>
-      <c r="F8">
-        <f>(C8-B8)^2</f>
+      <c r="G8">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G8">
-        <f>(E8-B8)^2</f>
+      <c r="H8">
+        <f t="shared" si="3"/>
         <v>2.1803308642779466</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f>SLOPE(B:B,C:C)</f>
         <v>0.96502506559516021</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>B9+$I$2</f>
+        <f t="shared" si="0"/>
         <v>437</v>
       </c>
       <c r="B9">
@@ -4651,21 +6461,25 @@
         <v>4.7</v>
       </c>
       <c r="E9">
-        <f>C9*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.16794833886788</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
         <v>78.173656309396677</v>
       </c>
-      <c r="F9">
-        <f>(C9-B9)^2</f>
+      <c r="G9">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G9">
-        <f>(E9-B9)^2</f>
+      <c r="H9">
+        <f t="shared" si="3"/>
         <v>3.3355312762065683</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>B10+$I$2</f>
+        <f t="shared" si="0"/>
         <v>447</v>
       </c>
       <c r="B10">
@@ -4678,24 +6492,28 @@
         <v>3.3</v>
       </c>
       <c r="E10">
-        <f>C10*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>1.8165902124584949</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
         <v>87.823906965348286</v>
       </c>
-      <c r="F10">
-        <f>(C10-B10)^2</f>
+      <c r="G10">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G10">
-        <f>(E10-B10)^2</f>
+      <c r="H10">
+        <f t="shared" si="3"/>
         <v>4.7353808954597065</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>B11+$I$2</f>
+        <f t="shared" si="0"/>
         <v>457</v>
       </c>
       <c r="B11">
@@ -4708,25 +6526,29 @@
         <v>3.3</v>
       </c>
       <c r="E11">
-        <f>C11*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>1.8165902124584949</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
         <v>99.404207752490208</v>
       </c>
-      <c r="F11">
-        <f>(C11-B11)^2</f>
+      <c r="G11">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="G11">
-        <f>(E11-B11)^2</f>
+      <c r="H11">
+        <f t="shared" si="3"/>
         <v>0.35496840219276882</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <f>INTERCEPT(B:B,C:C)</f>
         <v>-3.8534742661919381</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>B12+$I$2</f>
+        <f t="shared" si="0"/>
         <v>467</v>
       </c>
       <c r="B12">
@@ -4739,21 +6561,25 @@
         <v>3.4</v>
       </c>
       <c r="E12">
-        <f>C12*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>1.8439088914585775</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
         <v>107.12440827725149</v>
       </c>
-      <c r="F12">
-        <f>(C12-B12)^2</f>
+      <c r="G12">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G12">
-        <f>(E12-B12)^2</f>
+      <c r="H12">
+        <f t="shared" si="3"/>
         <v>8.269027755939744</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>B13+$I$2</f>
+        <f t="shared" si="0"/>
         <v>477</v>
       </c>
       <c r="B13">
@@ -4766,24 +6592,28 @@
         <v>3.6</v>
       </c>
       <c r="E13">
-        <f>C13*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>1.8973665961010275</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
         <v>116.77465893320309</v>
       </c>
-      <c r="F13">
-        <f>(C13-B13)^2</f>
+      <c r="G13">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G13">
-        <f>(E13-B13)^2</f>
+      <c r="H13">
+        <f t="shared" si="3"/>
         <v>10.402824997166661</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>B14+$I$2</f>
+        <f t="shared" si="0"/>
         <v>487</v>
       </c>
       <c r="B14">
@@ -4796,25 +6626,29 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <f>C14*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
         <v>127.38993465474985</v>
       </c>
-      <c r="F14">
-        <f>(C14-B14)^2</f>
+      <c r="G14">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="G14">
-        <f>(E14-B14)^2</f>
+      <c r="H14">
+        <f t="shared" si="3"/>
         <v>6.8124411064757791</v>
       </c>
-      <c r="I14">
-        <f>AVERAGE(F:F)</f>
+      <c r="J14">
+        <f>AVERAGE(G:G)</f>
         <v>308.64150943396226</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>B15+$I$2</f>
+        <f t="shared" si="0"/>
         <v>497</v>
       </c>
       <c r="B15">
@@ -4827,21 +6661,25 @@
         <v>3.6</v>
       </c>
       <c r="E15">
-        <f>C15*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>1.8973665961010275</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
         <v>138.00521037629662</v>
       </c>
-      <c r="F15">
-        <f>(C15-B15)^2</f>
+      <c r="G15">
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="G15">
-        <f>(E15-B15)^2</f>
+      <c r="H15">
+        <f t="shared" si="3"/>
         <v>3.9791856428346848</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>B16+$I$2</f>
+        <f t="shared" si="0"/>
         <v>507</v>
       </c>
       <c r="B16">
@@ -4854,24 +6692,28 @@
         <v>3.5</v>
       </c>
       <c r="E16">
-        <f>C16*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>1.8708286933869707</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
         <v>148.62048609784338</v>
       </c>
-      <c r="F16">
-        <f>(C16-B16)^2</f>
+      <c r="G16">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="G16">
-        <f>(E16-B16)^2</f>
+      <c r="H16">
+        <f t="shared" si="3"/>
         <v>1.9030586062433767</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>B17+$I$2</f>
+        <f t="shared" si="0"/>
         <v>517</v>
       </c>
       <c r="B17">
@@ -4884,25 +6726,29 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <f>C17*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
         <v>158.27073675379498</v>
       </c>
-      <c r="F17">
-        <f>(C17-B17)^2</f>
+      <c r="G17">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="G17">
-        <f>(E17-B17)^2</f>
+      <c r="H17">
+        <f t="shared" si="3"/>
         <v>2.990351374675531</v>
       </c>
-      <c r="I17">
-        <f>AVERAGE(G:G)</f>
+      <c r="J17">
+        <f>AVERAGE(H:H)</f>
         <v>6.2585754255754154</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>B18+$I$2</f>
+        <f t="shared" si="0"/>
         <v>527</v>
       </c>
       <c r="B18">
@@ -4915,21 +6761,25 @@
         <v>3.6</v>
       </c>
       <c r="E18">
-        <f>C18*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>1.8973665961010275</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
         <v>167.92098740974657</v>
       </c>
-      <c r="F18">
-        <f>(C18-B18)^2</f>
+      <c r="G18">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="G18">
-        <f>(E18-B18)^2</f>
+      <c r="H18">
+        <f t="shared" si="3"/>
         <v>4.3222933504322647</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>B19+$I$2</f>
+        <f t="shared" si="0"/>
         <v>537</v>
       </c>
       <c r="B19">
@@ -4942,24 +6792,28 @@
         <v>4.2</v>
       </c>
       <c r="E19">
-        <f>C19*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.0493901531919199</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
         <v>179.50128819688851</v>
       </c>
-      <c r="F19">
-        <f>(C19-B19)^2</f>
+      <c r="G19">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G19">
-        <f>(E19-B19)^2</f>
+      <c r="H19">
+        <f t="shared" si="3"/>
         <v>0.2487134625627139</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>B20+$I$2</f>
+        <f t="shared" si="0"/>
         <v>547</v>
       </c>
       <c r="B20">
@@ -4972,25 +6826,29 @@
         <v>3.7</v>
       </c>
       <c r="E20">
-        <f>C20*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>1.9235384061671346</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
         <v>188.18651378724493</v>
       </c>
-      <c r="F20">
-        <f>(C20-B20)^2</f>
+      <c r="G20">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="G20">
-        <f>(E20-B20)^2</f>
+      <c r="H20">
+        <f t="shared" si="3"/>
         <v>3.2887322438527131</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <f>'Full data'!I14</f>
         <v>342.31578947368422</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>B21+$I$2</f>
+        <f t="shared" si="0"/>
         <v>557</v>
       </c>
       <c r="B21">
@@ -5003,21 +6861,25 @@
         <v>3.8</v>
       </c>
       <c r="E21">
-        <f>C21*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>1.9493588689617927</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
         <v>197.83676444319656</v>
       </c>
-      <c r="F21">
-        <f>(C21-B21)^2</f>
+      <c r="G21">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="G21">
-        <f>(E21-B21)^2</f>
+      <c r="H21">
+        <f t="shared" si="3"/>
         <v>4.6795880742187004</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>B22+$I$2</f>
+        <f t="shared" si="0"/>
         <v>567</v>
       </c>
       <c r="B22">
@@ -5030,24 +6892,28 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E22">
-        <f>C22*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.0248456731316584</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
         <v>207.48701509914815</v>
       </c>
-      <c r="F22">
-        <f>(C22-B22)^2</f>
+      <c r="G22">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="G22">
-        <f>(E22-B22)^2</f>
+      <c r="H22">
+        <f t="shared" si="3"/>
         <v>6.3150931119093707</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>B23+$I$2</f>
+        <f t="shared" si="0"/>
         <v>577</v>
       </c>
       <c r="B23">
@@ -5060,25 +6926,29 @@
         <v>3.7</v>
       </c>
       <c r="E23">
-        <f>C23*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>1.9235384061671346</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
         <v>218.10229082069492</v>
       </c>
-      <c r="F23">
-        <f>(C23-B23)^2</f>
+      <c r="G23">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G23">
-        <f>(E23-B23)^2</f>
+      <c r="H23">
+        <f t="shared" si="3"/>
         <v>3.601300129218767</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f>'Full data'!I17</f>
         <v>14.976942443017458</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>B24+$I$2</f>
+        <f t="shared" si="0"/>
         <v>587</v>
       </c>
       <c r="B24">
@@ -5091,21 +6961,25 @@
         <v>4.7</v>
       </c>
       <c r="E24">
-        <f>C24*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.16794833886788</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
         <v>227.75254147664651</v>
       </c>
-      <c r="F24">
-        <f>(C24-B24)^2</f>
+      <c r="G24">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G24">
-        <f>(E24-B24)^2</f>
+      <c r="H24">
+        <f t="shared" si="3"/>
         <v>5.0510698141942347</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>B25+$I$2</f>
+        <f t="shared" si="0"/>
         <v>597</v>
       </c>
       <c r="B25">
@@ -5118,21 +6992,25 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E25">
-        <f>C25*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.0976176963403033</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
         <v>238.36781719819328</v>
       </c>
-      <c r="F25">
-        <f>(C25-B25)^2</f>
+      <c r="G25">
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
-      <c r="G25">
-        <f>(E25-B25)^2</f>
+      <c r="H25">
+        <f t="shared" si="3"/>
         <v>2.6640206985136374</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>B26+$I$2</f>
+        <f t="shared" si="0"/>
         <v>607</v>
       </c>
       <c r="B26">
@@ -5145,21 +7023,25 @@
         <v>4.5</v>
       </c>
       <c r="E26">
-        <f>C26*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.1213203435596424</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
         <v>248.98309291974005</v>
       </c>
-      <c r="F26">
-        <f>(C26-B26)^2</f>
+      <c r="G26">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="G26">
-        <f>(E26-B26)^2</f>
+      <c r="H26">
+        <f t="shared" si="3"/>
         <v>1.0341000098828264</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>B27+$I$2</f>
+        <f t="shared" si="0"/>
         <v>617</v>
       </c>
       <c r="B27">
@@ -5172,21 +7054,25 @@
         <v>4.5</v>
       </c>
       <c r="E27">
-        <f>C27*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.1213203435596424</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
         <v>259.59836864128681</v>
       </c>
-      <c r="F27">
-        <f>(C27-B27)^2</f>
+      <c r="G27">
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="G27">
-        <f>(E27-B27)^2</f>
+      <c r="H27">
+        <f t="shared" si="3"/>
         <v>0.16130774830180231</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>B28+$I$2</f>
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
       <c r="B28">
@@ -5199,21 +7085,25 @@
         <v>4.8</v>
       </c>
       <c r="E28">
-        <f>C28*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.1908902300206643</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
         <v>270.21364436283358</v>
       </c>
-      <c r="F28">
-        <f>(C28-B28)^2</f>
+      <c r="G28">
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
-      <c r="G28">
-        <f>(E28-B28)^2</f>
+      <c r="H28">
+        <f t="shared" si="3"/>
         <v>4.5643913770565057E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>B29+$I$2</f>
+        <f t="shared" si="0"/>
         <v>637</v>
       </c>
       <c r="B29">
@@ -5226,21 +7116,25 @@
         <v>4.7</v>
       </c>
       <c r="E29">
-        <f>C29*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.16794833886788</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
         <v>280.82892008438034</v>
       </c>
-      <c r="F29">
-        <f>(C29-B29)^2</f>
+      <c r="G29">
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
-      <c r="G29">
-        <f>(E29-B29)^2</f>
+      <c r="H29">
+        <f t="shared" si="3"/>
         <v>0.68710850628911468</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>B30+$I$2</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="B30">
@@ -5253,21 +7147,25 @@
         <v>5.5</v>
       </c>
       <c r="E30">
-        <f>C30*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.3452078799117149</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
         <v>291.44419580592711</v>
       </c>
-      <c r="F30">
-        <f>(C30-B30)^2</f>
+      <c r="G30">
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="G30">
-        <f>(E30-B30)^2</f>
+      <c r="H30">
+        <f t="shared" si="3"/>
         <v>2.0857015258574512</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>B31+$I$2</f>
+        <f t="shared" si="0"/>
         <v>657</v>
       </c>
       <c r="B31">
@@ -5280,21 +7178,25 @@
         <v>5.8</v>
       </c>
       <c r="E31">
-        <f>C31*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.4083189157584592</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
         <v>301.0944464618787</v>
       </c>
-      <c r="F31">
-        <f>(C31-B31)^2</f>
+      <c r="G31">
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="G31">
-        <f>(E31-B31)^2</f>
+      <c r="H31">
+        <f t="shared" si="3"/>
         <v>1.1978130579188129</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>B32+$I$2</f>
+        <f t="shared" si="0"/>
         <v>667</v>
       </c>
       <c r="B32">
@@ -5307,21 +7209,25 @@
         <v>5.9</v>
       </c>
       <c r="E32">
-        <f>C32*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.4289915602982237</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
         <v>311.70972218342547</v>
       </c>
-      <c r="F32">
-        <f>(C32-B32)^2</f>
+      <c r="G32">
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
-      <c r="G32">
-        <f>(E32-B32)^2</f>
+      <c r="H32">
+        <f t="shared" si="3"/>
         <v>2.9231499444971552</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>B33+$I$2</f>
+        <f t="shared" si="0"/>
         <v>677</v>
       </c>
       <c r="B33">
@@ -5334,21 +7240,25 @@
         <v>6</v>
       </c>
       <c r="E33">
-        <f>C33*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
         <v>322.32499790497224</v>
       </c>
-      <c r="F33">
-        <f>(C33-B33)^2</f>
+      <c r="G33">
+        <f t="shared" si="2"/>
         <v>324</v>
       </c>
-      <c r="G33">
-        <f>(E33-B33)^2</f>
+      <c r="H33">
+        <f t="shared" si="3"/>
         <v>5.4056152581252848</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>B34+$I$2</f>
+        <f t="shared" ref="A34:A65" si="5">B34+$J$2</f>
         <v>687</v>
       </c>
       <c r="B34">
@@ -5361,21 +7271,25 @@
         <v>5.9</v>
       </c>
       <c r="E34">
-        <f>C34*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.4289915602982237</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F50" si="6">C34*$J$8+$J$11</f>
         <v>331.97524856092383</v>
       </c>
-      <c r="F34">
-        <f>(C34-B34)^2</f>
+      <c r="G34">
+        <f t="shared" ref="G34:G50" si="7">(C34-B34)^2</f>
         <v>324</v>
       </c>
-      <c r="G34">
-        <f>(E34-B34)^2</f>
+      <c r="H34">
+        <f t="shared" ref="H34:H50" si="8">(F34-B34)^2</f>
         <v>3.9016068774316639</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>B35+$I$2</f>
+        <f t="shared" si="5"/>
         <v>697</v>
       </c>
       <c r="B35">
@@ -5388,21 +7302,25 @@
         <v>7.3</v>
       </c>
       <c r="E35">
-        <f>C35*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.7018512172212592</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
         <v>341.62549921687543</v>
       </c>
-      <c r="F35">
-        <f>(C35-B35)^2</f>
+      <c r="G35">
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
-      <c r="G35">
-        <f>(E35-B35)^2</f>
+      <c r="H35">
+        <f t="shared" si="8"/>
         <v>2.6422477040626222</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>B36+$I$2</f>
+        <f t="shared" si="5"/>
         <v>707</v>
       </c>
       <c r="B36">
@@ -5415,21 +7333,25 @@
         <v>7.8</v>
       </c>
       <c r="E36">
-        <f>C36*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.7928480087537881</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
         <v>351.27574987282702</v>
       </c>
-      <c r="F36">
-        <f>(C36-B36)^2</f>
+      <c r="G36">
+        <f t="shared" si="7"/>
         <v>324</v>
       </c>
-      <c r="G36">
-        <f>(E36-B36)^2</f>
+      <c r="H36">
+        <f t="shared" si="8"/>
         <v>1.6275377380181595</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>B37+$I$2</f>
+        <f t="shared" si="5"/>
         <v>717</v>
       </c>
       <c r="B37">
@@ -5442,21 +7364,25 @@
         <v>7.3</v>
       </c>
       <c r="E37">
-        <f>C37*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.7018512172212592</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="6"/>
         <v>361.89102559437379</v>
       </c>
-      <c r="F37">
-        <f>(C37-B37)^2</f>
+      <c r="G37">
+        <f t="shared" si="7"/>
         <v>361</v>
       </c>
-      <c r="G37">
-        <f>(E37-B37)^2</f>
+      <c r="H37">
+        <f t="shared" si="8"/>
         <v>3.5759777985767327</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>B38+$I$2</f>
+        <f t="shared" si="5"/>
         <v>727</v>
       </c>
       <c r="B38">
@@ -5469,21 +7395,25 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E38">
-        <f>C38*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.8809720581775866</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="6"/>
         <v>373.47132638151572</v>
       </c>
-      <c r="F38">
-        <f>(C38-B38)^2</f>
+      <c r="G38">
+        <f t="shared" si="7"/>
         <v>441</v>
       </c>
-      <c r="G38">
-        <f>(E38-B38)^2</f>
+      <c r="H38">
+        <f t="shared" si="8"/>
         <v>12.050106847007045</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>B39+$I$2</f>
+        <f t="shared" si="5"/>
         <v>737</v>
       </c>
       <c r="B39">
@@ -5496,21 +7426,25 @@
         <v>8.4</v>
       </c>
       <c r="E39">
-        <f>C39*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>2.8982753492378879</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="6"/>
         <v>383.12157703746732</v>
       </c>
-      <c r="F39">
-        <f>(C39-B39)^2</f>
+      <c r="G39">
+        <f t="shared" si="7"/>
         <v>441</v>
       </c>
-      <c r="G39">
-        <f>(E39-B39)^2</f>
+      <c r="H39">
+        <f t="shared" si="8"/>
         <v>9.7442432008432398</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>B40+$I$2</f>
+        <f t="shared" si="5"/>
         <v>747</v>
       </c>
       <c r="B40">
@@ -5523,21 +7457,25 @@
         <v>9.5</v>
       </c>
       <c r="E40">
-        <f>C40*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>3.082207001484488</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="6"/>
         <v>393.73685275901408</v>
       </c>
-      <c r="F40">
-        <f>(C40-B40)^2</f>
+      <c r="G40">
+        <f t="shared" si="7"/>
         <v>484</v>
       </c>
-      <c r="G40">
-        <f>(E40-B40)^2</f>
+      <c r="H40">
+        <f t="shared" si="8"/>
         <v>13.964068542551175</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>B41+$I$2</f>
+        <f t="shared" si="5"/>
         <v>757</v>
       </c>
       <c r="B41">
@@ -5550,21 +7488,25 @@
         <v>11.2</v>
       </c>
       <c r="E41">
-        <f>C41*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>3.3466401061363023</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="6"/>
         <v>403.38710341496568</v>
       </c>
-      <c r="F41">
-        <f>(C41-B41)^2</f>
+      <c r="G41">
+        <f t="shared" si="7"/>
         <v>484</v>
       </c>
-      <c r="G41">
-        <f>(E41-B41)^2</f>
+      <c r="H41">
+        <f t="shared" si="8"/>
         <v>11.472469543672167</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>B42+$I$2</f>
+        <f t="shared" si="5"/>
         <v>767</v>
       </c>
       <c r="B42">
@@ -5577,21 +7519,25 @@
         <v>10.7</v>
       </c>
       <c r="E42">
-        <f>C42*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>3.271085446759225</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="6"/>
         <v>413.03735407091727</v>
       </c>
-      <c r="F42">
-        <f>(C42-B42)^2</f>
+      <c r="G42">
+        <f t="shared" si="7"/>
         <v>484</v>
       </c>
-      <c r="G42">
-        <f>(E42-B42)^2</f>
+      <c r="H42">
+        <f t="shared" si="8"/>
         <v>9.225519752117739</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>B43+$I$2</f>
+        <f t="shared" si="5"/>
         <v>777</v>
       </c>
       <c r="B43">
@@ -5604,21 +7550,25 @@
         <v>12.6</v>
       </c>
       <c r="E43">
-        <f>C43*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>3.5496478698597698</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="6"/>
         <v>422.68760472686887</v>
       </c>
-      <c r="F43">
-        <f>(C43-B43)^2</f>
+      <c r="G43">
+        <f t="shared" si="7"/>
         <v>484</v>
       </c>
-      <c r="G43">
-        <f>(E43-B43)^2</f>
+      <c r="H43">
+        <f t="shared" si="8"/>
         <v>7.2232191678878905</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>B44+$I$2</f>
+        <f t="shared" si="5"/>
         <v>787</v>
       </c>
       <c r="B44">
@@ -5631,21 +7581,25 @@
         <v>13.3</v>
       </c>
       <c r="E44">
-        <f>C44*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>3.646916505762094</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="6"/>
         <v>432.33785538282046</v>
       </c>
-      <c r="F44">
-        <f>(C44-B44)^2</f>
+      <c r="G44">
+        <f t="shared" si="7"/>
         <v>484</v>
       </c>
-      <c r="G44">
-        <f>(E44-B44)^2</f>
+      <c r="H44">
+        <f t="shared" si="8"/>
         <v>5.4655677909826208</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>B45+$I$2</f>
+        <f t="shared" si="5"/>
         <v>837</v>
       </c>
       <c r="B45">
@@ -5658,21 +7612,25 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E45">
-        <f>C45*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>4.3127717305695654</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="6"/>
         <v>483.48418385936395</v>
       </c>
-      <c r="F45">
-        <f>(C45-B45)^2</f>
+      <c r="G45">
+        <f t="shared" si="7"/>
         <v>625</v>
       </c>
-      <c r="G45">
-        <f>(E45-B45)^2</f>
+      <c r="H45">
+        <f t="shared" si="8"/>
         <v>12.139537165852285</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>B46+$I$2</f>
+        <f t="shared" si="5"/>
         <v>887</v>
       </c>
       <c r="B46">
@@ -5685,21 +7643,25 @@
         <v>22</v>
       </c>
       <c r="E46">
-        <f>C46*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>4.6904157598234297</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
         <v>533.66548727031227</v>
       </c>
-      <c r="F46">
-        <f>(C46-B46)^2</f>
+      <c r="G46">
+        <f t="shared" si="7"/>
         <v>729</v>
       </c>
-      <c r="G46">
-        <f>(E46-B46)^2</f>
+      <c r="H46">
+        <f t="shared" si="8"/>
         <v>13.43579692882129</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>B47+$I$2</f>
+        <f t="shared" si="5"/>
         <v>937</v>
       </c>
       <c r="B47">
@@ -5712,21 +7674,25 @@
         <v>35.5</v>
       </c>
       <c r="E47">
-        <f>C47*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>5.9581876439064922</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
         <v>581.91674055007036</v>
       </c>
-      <c r="F47">
-        <f>(C47-B47)^2</f>
+      <c r="G47">
+        <f t="shared" si="7"/>
         <v>729</v>
       </c>
-      <c r="G47">
-        <f>(E47-B47)^2</f>
+      <c r="H47">
+        <f t="shared" si="8"/>
         <v>3.6738943362840186</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>B48+$I$2</f>
+        <f t="shared" si="5"/>
         <v>987</v>
       </c>
       <c r="B48">
@@ -5739,21 +7705,25 @@
         <v>42</v>
       </c>
       <c r="E48">
-        <f>C48*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
         <v>632.09804396101867</v>
       </c>
-      <c r="F48">
-        <f>(C48-B48)^2</f>
+      <c r="G48">
+        <f t="shared" si="7"/>
         <v>841</v>
       </c>
-      <c r="G48">
-        <f>(E48-B48)^2</f>
+      <c r="H48">
+        <f t="shared" si="8"/>
         <v>4.4017884623669312</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>B49+$I$2</f>
+        <f t="shared" si="5"/>
         <v>1037</v>
       </c>
       <c r="B49">
@@ -5766,21 +7736,25 @@
         <v>57</v>
       </c>
       <c r="E49">
-        <f>C49*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>7.5498344352707498</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="6"/>
         <v>681.31432230637176</v>
       </c>
-      <c r="F49">
-        <f>(C49-B49)^2</f>
+      <c r="G49">
+        <f t="shared" si="7"/>
         <v>900</v>
       </c>
-      <c r="G49">
-        <f>(E49-B49)^2</f>
+      <c r="H49">
+        <f t="shared" si="8"/>
         <v>1.7274431250263935</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>B50+$I$2</f>
+        <f t="shared" si="5"/>
         <v>1087</v>
       </c>
       <c r="B50">
@@ -5793,21 +7767,25 @@
         <v>70</v>
       </c>
       <c r="E50">
-        <f>C50*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>8.3666002653407556</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="6"/>
         <v>730.53060065172497</v>
       </c>
-      <c r="F50">
-        <f>(C50-B50)^2</f>
+      <c r="G50">
+        <f t="shared" si="7"/>
         <v>961</v>
       </c>
-      <c r="G50">
-        <f>(E50-B50)^2</f>
+      <c r="H50">
+        <f t="shared" si="8"/>
         <v>0.28153705161095982</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>B51+$I$2</f>
+        <f t="shared" si="5"/>
         <v>1137</v>
       </c>
       <c r="B51">
@@ -5820,21 +7798,25 @@
         <v>88</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:E55" si="0">C51*$I$8+$I$11</f>
+        <f t="shared" si="4"/>
+        <v>9.3808315196468595</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:F54" si="9">C51*$J$8+$J$11</f>
         <v>778.78185393148294</v>
       </c>
-      <c r="F51">
-        <f t="shared" ref="F51:F55" si="1">(C51-B51)^2</f>
+      <c r="G51">
+        <f t="shared" ref="G51:G54" si="10">(C51-B51)^2</f>
         <v>961</v>
       </c>
-      <c r="G51">
-        <f t="shared" ref="G51:G55" si="2">(E51-B51)^2</f>
+      <c r="H51">
+        <f t="shared" ref="H51:H54" si="11">(F51-B51)^2</f>
         <v>1.4838798442435643</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>B52+$I$2</f>
+        <f t="shared" si="5"/>
         <v>1187</v>
       </c>
       <c r="B52">
@@ -5847,21 +7829,25 @@
         <v>121</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="9"/>
         <v>827.03310721124103</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="1"/>
+      <c r="G52">
+        <f t="shared" si="10"/>
         <v>961</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
+      <c r="H52">
+        <f t="shared" si="11"/>
         <v>8.8024528199899716</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>B53+$I$2</f>
+        <f t="shared" si="5"/>
         <v>1237</v>
       </c>
       <c r="B53">
@@ -5874,21 +7860,25 @@
         <v>170</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v>13.038404810405298</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="9"/>
         <v>874.31933542540389</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="1"/>
+      <c r="G53">
+        <f t="shared" si="10"/>
         <v>900</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
+      <c r="H53">
+        <f t="shared" si="11"/>
         <v>32.269950009071181</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>B54+$I$2</f>
+        <f t="shared" si="5"/>
         <v>1287</v>
       </c>
       <c r="B54">
@@ -5901,15 +7891,19 @@
         <v>196</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="9"/>
         <v>922.57058870516187</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="1"/>
+      <c r="G54">
+        <f t="shared" si="10"/>
         <v>900</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
+      <c r="H54">
+        <f t="shared" si="11"/>
         <v>55.196152187868421</v>
       </c>
     </row>
@@ -5927,20 +7921,20 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5966,9 +7960,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>B2+$I$2</f>
+        <f t="shared" ref="A2:A33" si="0">B2+$I$2</f>
         <v>367</v>
       </c>
       <c r="B2">
@@ -5981,24 +7975,24 @@
         <v>3.2</v>
       </c>
       <c r="E2">
-        <f>C2*$I$8+$I$11</f>
+        <f t="shared" ref="E2:E49" si="1">C2*$I$8+$I$11</f>
         <v>12.551951848925786</v>
       </c>
       <c r="F2">
-        <f>(C2-B2)^2</f>
+        <f t="shared" ref="F2:F49" si="2">(C2-B2)^2</f>
         <v>49</v>
       </c>
       <c r="G2">
-        <f>(E2-B2)^2</f>
+        <f t="shared" ref="G2:G49" si="3">(E2-B2)^2</f>
         <v>6.5124582392357349</v>
       </c>
       <c r="I2">
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>B3+$I$2</f>
+        <f t="shared" si="0"/>
         <v>377</v>
       </c>
       <c r="B3">
@@ -6011,22 +8005,22 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <f>C3*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>17.377077176901587</v>
       </c>
       <c r="F3">
-        <f>(C3-B3)^2</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G3">
-        <f>(E3-B3)^2</f>
+        <f t="shared" si="3"/>
         <v>6.8797241359305508</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>B4+$I$2</f>
+        <f t="shared" si="0"/>
         <v>387</v>
       </c>
       <c r="B4">
@@ -6039,15 +8033,15 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <f>C4*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>32.81747822642415</v>
       </c>
       <c r="F4">
-        <f>(C4-B4)^2</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="G4">
-        <f>(E4-B4)^2</f>
+        <f t="shared" si="3"/>
         <v>7.9381835563741738</v>
       </c>
       <c r="H4" t="s">
@@ -6057,9 +8051,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>B5+$I$2</f>
+        <f t="shared" si="0"/>
         <v>397</v>
       </c>
       <c r="B5">
@@ -6072,24 +8066,24 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <f>C5*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>42.467728882375752</v>
       </c>
       <c r="F5">
-        <f>(C5-B5)^2</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="G5">
-        <f>(E5-B5)^2</f>
+        <f t="shared" si="3"/>
         <v>6.089685836911479</v>
       </c>
       <c r="I5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>B6+$I$2</f>
+        <f t="shared" si="0"/>
         <v>407</v>
       </c>
       <c r="B6">
@@ -6102,21 +8096,21 @@
         <v>4.5</v>
       </c>
       <c r="E6">
-        <f>C6*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>55.978079800707995</v>
       </c>
       <c r="F6">
-        <f>(C6-B6)^2</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="G6">
-        <f>(E6-B6)^2</f>
+        <f t="shared" si="3"/>
         <v>35.73743810363294</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>B7+$I$2</f>
+        <f t="shared" si="0"/>
         <v>417</v>
       </c>
       <c r="B7">
@@ -6129,24 +8123,24 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <f>C7*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>58.873154997493472</v>
       </c>
       <c r="F7">
-        <f>(C7-B7)^2</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="G7">
-        <f>(E7-B7)^2</f>
+        <f t="shared" si="3"/>
         <v>1.2697796596739366</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>B8+$I$2</f>
+        <f t="shared" si="0"/>
         <v>427</v>
       </c>
       <c r="B8">
@@ -6159,25 +8153,25 @@
         <v>4.5</v>
       </c>
       <c r="E8">
-        <f>C8*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>68.523405653445081</v>
       </c>
       <c r="F8">
-        <f>(C8-B8)^2</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="G8">
-        <f>(E8-B8)^2</f>
+        <f t="shared" si="3"/>
         <v>2.1803308642779466</v>
       </c>
       <c r="I8">
-        <f>'Partial data'!I8</f>
+        <f>'Partial data'!J8</f>
         <v>0.96502506559516021</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>B9+$I$2</f>
+        <f t="shared" si="0"/>
         <v>437</v>
       </c>
       <c r="B9">
@@ -6190,21 +8184,21 @@
         <v>4.7</v>
       </c>
       <c r="E9">
-        <f>C9*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>78.173656309396677</v>
       </c>
       <c r="F9">
-        <f>(C9-B9)^2</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="G9">
-        <f>(E9-B9)^2</f>
+        <f t="shared" si="3"/>
         <v>3.3355312762065683</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>B10+$I$2</f>
+        <f t="shared" si="0"/>
         <v>447</v>
       </c>
       <c r="B10">
@@ -6217,24 +8211,24 @@
         <v>3.3</v>
       </c>
       <c r="E10">
-        <f>C10*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>87.823906965348286</v>
       </c>
       <c r="F10">
-        <f>(C10-B10)^2</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="G10">
-        <f>(E10-B10)^2</f>
+        <f t="shared" si="3"/>
         <v>4.7353808954597065</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>B11+$I$2</f>
+        <f t="shared" si="0"/>
         <v>457</v>
       </c>
       <c r="B11">
@@ -6247,25 +8241,25 @@
         <v>3.3</v>
       </c>
       <c r="E11">
-        <f>C11*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>99.404207752490208</v>
       </c>
       <c r="F11">
-        <f>(C11-B11)^2</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="G11">
-        <f>(E11-B11)^2</f>
+        <f t="shared" si="3"/>
         <v>0.35496840219276882</v>
       </c>
       <c r="I11">
-        <f>'Partial data'!I11</f>
+        <f>'Partial data'!J11</f>
         <v>-3.8534742661919381</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>B12+$I$2</f>
+        <f t="shared" si="0"/>
         <v>467</v>
       </c>
       <c r="B12">
@@ -6278,21 +8272,21 @@
         <v>3.4</v>
       </c>
       <c r="E12">
-        <f>C12*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>107.12440827725149</v>
       </c>
       <c r="F12">
-        <f>(C12-B12)^2</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="G12">
-        <f>(E12-B12)^2</f>
+        <f t="shared" si="3"/>
         <v>8.269027755939744</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>B13+$I$2</f>
+        <f t="shared" si="0"/>
         <v>477</v>
       </c>
       <c r="B13">
@@ -6305,24 +8299,24 @@
         <v>3.6</v>
       </c>
       <c r="E13">
-        <f>C13*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>116.77465893320309</v>
       </c>
       <c r="F13">
-        <f>(C13-B13)^2</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="G13">
-        <f>(E13-B13)^2</f>
+        <f t="shared" si="3"/>
         <v>10.402824997166661</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>B14+$I$2</f>
+        <f t="shared" si="0"/>
         <v>487</v>
       </c>
       <c r="B14">
@@ -6335,15 +8329,15 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <f>C14*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>127.38993465474985</v>
       </c>
       <c r="F14">
-        <f>(C14-B14)^2</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="G14">
-        <f>(E14-B14)^2</f>
+        <f t="shared" si="3"/>
         <v>6.8124411064757791</v>
       </c>
       <c r="I14">
@@ -6351,9 +8345,9 @@
         <v>342.31578947368422</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>B15+$I$2</f>
+        <f t="shared" si="0"/>
         <v>497</v>
       </c>
       <c r="B15">
@@ -6366,21 +8360,21 @@
         <v>3.6</v>
       </c>
       <c r="E15">
-        <f>C15*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>138.00521037629662</v>
       </c>
       <c r="F15">
-        <f>(C15-B15)^2</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="G15">
-        <f>(E15-B15)^2</f>
+        <f t="shared" si="3"/>
         <v>3.9791856428346848</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>B16+$I$2</f>
+        <f t="shared" si="0"/>
         <v>507</v>
       </c>
       <c r="B16">
@@ -6393,24 +8387,24 @@
         <v>3.5</v>
       </c>
       <c r="E16">
-        <f>C16*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>148.62048609784338</v>
       </c>
       <c r="F16">
-        <f>(C16-B16)^2</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="G16">
-        <f>(E16-B16)^2</f>
+        <f t="shared" si="3"/>
         <v>1.9030586062433767</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>B17+$I$2</f>
+        <f t="shared" si="0"/>
         <v>517</v>
       </c>
       <c r="B17">
@@ -6423,15 +8417,15 @@
         <v>4</v>
       </c>
       <c r="E17">
-        <f>C17*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>158.27073675379498</v>
       </c>
       <c r="F17">
-        <f>(C17-B17)^2</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="G17">
-        <f>(E17-B17)^2</f>
+        <f t="shared" si="3"/>
         <v>2.990351374675531</v>
       </c>
       <c r="I17">
@@ -6439,9 +8433,9 @@
         <v>14.976942443017458</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>B18+$I$2</f>
+        <f t="shared" si="0"/>
         <v>527</v>
       </c>
       <c r="B18">
@@ -6454,21 +8448,21 @@
         <v>3.6</v>
       </c>
       <c r="E18">
-        <f>C18*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>167.92098740974657</v>
       </c>
       <c r="F18">
-        <f>(C18-B18)^2</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="G18">
-        <f>(E18-B18)^2</f>
+        <f t="shared" si="3"/>
         <v>4.3222933504322647</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>B19+$I$2</f>
+        <f t="shared" si="0"/>
         <v>537</v>
       </c>
       <c r="B19">
@@ -6481,21 +8475,21 @@
         <v>4.2</v>
       </c>
       <c r="E19">
-        <f>C19*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>179.50128819688851</v>
       </c>
       <c r="F19">
-        <f>(C19-B19)^2</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G19">
-        <f>(E19-B19)^2</f>
+        <f t="shared" si="3"/>
         <v>0.2487134625627139</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>B20+$I$2</f>
+        <f t="shared" si="0"/>
         <v>547</v>
       </c>
       <c r="B20">
@@ -6508,21 +8502,21 @@
         <v>3.7</v>
       </c>
       <c r="E20">
-        <f>C20*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>188.18651378724493</v>
       </c>
       <c r="F20">
-        <f>(C20-B20)^2</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="G20">
-        <f>(E20-B20)^2</f>
+        <f t="shared" si="3"/>
         <v>3.2887322438527131</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>B21+$I$2</f>
+        <f t="shared" si="0"/>
         <v>557</v>
       </c>
       <c r="B21">
@@ -6535,21 +8529,21 @@
         <v>3.8</v>
       </c>
       <c r="E21">
-        <f>C21*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>197.83676444319656</v>
       </c>
       <c r="F21">
-        <f>(C21-B21)^2</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="G21">
-        <f>(E21-B21)^2</f>
+        <f t="shared" si="3"/>
         <v>4.6795880742187004</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>B22+$I$2</f>
+        <f t="shared" si="0"/>
         <v>567</v>
       </c>
       <c r="B22">
@@ -6562,21 +8556,21 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E22">
-        <f>C22*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>207.48701509914815</v>
       </c>
       <c r="F22">
-        <f>(C22-B22)^2</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="G22">
-        <f>(E22-B22)^2</f>
+        <f t="shared" si="3"/>
         <v>6.3150931119093707</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>B23+$I$2</f>
+        <f t="shared" si="0"/>
         <v>577</v>
       </c>
       <c r="B23">
@@ -6589,21 +8583,21 @@
         <v>3.7</v>
       </c>
       <c r="E23">
-        <f>C23*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>218.10229082069492</v>
       </c>
       <c r="F23">
-        <f>(C23-B23)^2</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G23">
-        <f>(E23-B23)^2</f>
+        <f t="shared" si="3"/>
         <v>3.601300129218767</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>B24+$I$2</f>
+        <f t="shared" si="0"/>
         <v>587</v>
       </c>
       <c r="B24">
@@ -6616,21 +8610,21 @@
         <v>4.7</v>
       </c>
       <c r="E24">
-        <f>C24*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>227.75254147664651</v>
       </c>
       <c r="F24">
-        <f>(C24-B24)^2</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="G24">
-        <f>(E24-B24)^2</f>
+        <f t="shared" si="3"/>
         <v>5.0510698141942347</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>B25+$I$2</f>
+        <f t="shared" si="0"/>
         <v>597</v>
       </c>
       <c r="B25">
@@ -6643,21 +8637,21 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E25">
-        <f>C25*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>238.36781719819328</v>
       </c>
       <c r="F25">
-        <f>(C25-B25)^2</f>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="G25">
-        <f>(E25-B25)^2</f>
+        <f t="shared" si="3"/>
         <v>2.6640206985136374</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>B26+$I$2</f>
+        <f t="shared" si="0"/>
         <v>607</v>
       </c>
       <c r="B26">
@@ -6670,21 +8664,21 @@
         <v>4.5</v>
       </c>
       <c r="E26">
-        <f>C26*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>248.98309291974005</v>
       </c>
       <c r="F26">
-        <f>(C26-B26)^2</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="G26">
-        <f>(E26-B26)^2</f>
+        <f t="shared" si="3"/>
         <v>1.0341000098828264</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>B27+$I$2</f>
+        <f t="shared" si="0"/>
         <v>617</v>
       </c>
       <c r="B27">
@@ -6697,21 +8691,21 @@
         <v>4.5</v>
       </c>
       <c r="E27">
-        <f>C27*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>259.59836864128681</v>
       </c>
       <c r="F27">
-        <f>(C27-B27)^2</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="G27">
-        <f>(E27-B27)^2</f>
+        <f t="shared" si="3"/>
         <v>0.16130774830180231</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>B28+$I$2</f>
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
       <c r="B28">
@@ -6724,21 +8718,21 @@
         <v>4.8</v>
       </c>
       <c r="E28">
-        <f>C28*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>270.21364436283358</v>
       </c>
       <c r="F28">
-        <f>(C28-B28)^2</f>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="G28">
-        <f>(E28-B28)^2</f>
+        <f t="shared" si="3"/>
         <v>4.5643913770565057E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>B29+$I$2</f>
+        <f t="shared" si="0"/>
         <v>637</v>
       </c>
       <c r="B29">
@@ -6751,21 +8745,21 @@
         <v>4.7</v>
       </c>
       <c r="E29">
-        <f>C29*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>280.82892008438034</v>
       </c>
       <c r="F29">
-        <f>(C29-B29)^2</f>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="G29">
-        <f>(E29-B29)^2</f>
+        <f t="shared" si="3"/>
         <v>0.68710850628911468</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>B30+$I$2</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="B30">
@@ -6778,21 +8772,21 @@
         <v>5.5</v>
       </c>
       <c r="E30">
-        <f>C30*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>291.44419580592711</v>
       </c>
       <c r="F30">
-        <f>(C30-B30)^2</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="G30">
-        <f>(E30-B30)^2</f>
+        <f t="shared" si="3"/>
         <v>2.0857015258574512</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>B31+$I$2</f>
+        <f t="shared" si="0"/>
         <v>657</v>
       </c>
       <c r="B31">
@@ -6805,21 +8799,21 @@
         <v>5.8</v>
       </c>
       <c r="E31">
-        <f>C31*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>301.0944464618787</v>
       </c>
       <c r="F31">
-        <f>(C31-B31)^2</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="G31">
-        <f>(E31-B31)^2</f>
+        <f t="shared" si="3"/>
         <v>1.1978130579188129</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>B32+$I$2</f>
+        <f t="shared" si="0"/>
         <v>667</v>
       </c>
       <c r="B32">
@@ -6832,21 +8826,21 @@
         <v>5.9</v>
       </c>
       <c r="E32">
-        <f>C32*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>311.70972218342547</v>
       </c>
       <c r="F32">
-        <f>(C32-B32)^2</f>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="G32">
-        <f>(E32-B32)^2</f>
+        <f t="shared" si="3"/>
         <v>2.9231499444971552</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>B33+$I$2</f>
+        <f t="shared" si="0"/>
         <v>677</v>
       </c>
       <c r="B33">
@@ -6859,21 +8853,21 @@
         <v>6</v>
       </c>
       <c r="E33">
-        <f>C33*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>322.32499790497224</v>
       </c>
       <c r="F33">
-        <f>(C33-B33)^2</f>
+        <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="G33">
-        <f>(E33-B33)^2</f>
+        <f t="shared" si="3"/>
         <v>5.4056152581252848</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>B34+$I$2</f>
+        <f t="shared" ref="A34:A65" si="4">B34+$I$2</f>
         <v>687</v>
       </c>
       <c r="B34">
@@ -6886,21 +8880,21 @@
         <v>5.9</v>
       </c>
       <c r="E34">
-        <f>C34*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>331.97524856092383</v>
       </c>
       <c r="F34">
-        <f>(C34-B34)^2</f>
+        <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="G34">
-        <f>(E34-B34)^2</f>
+        <f t="shared" si="3"/>
         <v>3.9016068774316639</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>B35+$I$2</f>
+        <f t="shared" si="4"/>
         <v>697</v>
       </c>
       <c r="B35">
@@ -6913,21 +8907,21 @@
         <v>7.3</v>
       </c>
       <c r="E35">
-        <f>C35*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>341.62549921687543</v>
       </c>
       <c r="F35">
-        <f>(C35-B35)^2</f>
+        <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="G35">
-        <f>(E35-B35)^2</f>
+        <f t="shared" si="3"/>
         <v>2.6422477040626222</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>B36+$I$2</f>
+        <f t="shared" si="4"/>
         <v>707</v>
       </c>
       <c r="B36">
@@ -6940,21 +8934,21 @@
         <v>7.8</v>
       </c>
       <c r="E36">
-        <f>C36*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>351.27574987282702</v>
       </c>
       <c r="F36">
-        <f>(C36-B36)^2</f>
+        <f t="shared" si="2"/>
         <v>324</v>
       </c>
       <c r="G36">
-        <f>(E36-B36)^2</f>
+        <f t="shared" si="3"/>
         <v>1.6275377380181595</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>B37+$I$2</f>
+        <f t="shared" si="4"/>
         <v>717</v>
       </c>
       <c r="B37">
@@ -6967,21 +8961,21 @@
         <v>7.3</v>
       </c>
       <c r="E37">
-        <f>C37*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>361.89102559437379</v>
       </c>
       <c r="F37">
-        <f>(C37-B37)^2</f>
+        <f t="shared" si="2"/>
         <v>361</v>
       </c>
       <c r="G37">
-        <f>(E37-B37)^2</f>
+        <f t="shared" si="3"/>
         <v>3.5759777985767327</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>B38+$I$2</f>
+        <f t="shared" si="4"/>
         <v>727</v>
       </c>
       <c r="B38">
@@ -6994,21 +8988,21 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="E38">
-        <f>C38*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>373.47132638151572</v>
       </c>
       <c r="F38">
-        <f>(C38-B38)^2</f>
+        <f t="shared" si="2"/>
         <v>441</v>
       </c>
       <c r="G38">
-        <f>(E38-B38)^2</f>
+        <f t="shared" si="3"/>
         <v>12.050106847007045</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>B39+$I$2</f>
+        <f t="shared" si="4"/>
         <v>737</v>
       </c>
       <c r="B39">
@@ -7021,21 +9015,21 @@
         <v>8.4</v>
       </c>
       <c r="E39">
-        <f>C39*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>383.12157703746732</v>
       </c>
       <c r="F39">
-        <f>(C39-B39)^2</f>
+        <f t="shared" si="2"/>
         <v>441</v>
       </c>
       <c r="G39">
-        <f>(E39-B39)^2</f>
+        <f t="shared" si="3"/>
         <v>9.7442432008432398</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>B40+$I$2</f>
+        <f t="shared" si="4"/>
         <v>747</v>
       </c>
       <c r="B40">
@@ -7048,21 +9042,21 @@
         <v>9.5</v>
       </c>
       <c r="E40">
-        <f>C40*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>393.73685275901408</v>
       </c>
       <c r="F40">
-        <f>(C40-B40)^2</f>
+        <f t="shared" si="2"/>
         <v>484</v>
       </c>
       <c r="G40">
-        <f>(E40-B40)^2</f>
+        <f t="shared" si="3"/>
         <v>13.964068542551175</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>B41+$I$2</f>
+        <f t="shared" si="4"/>
         <v>757</v>
       </c>
       <c r="B41">
@@ -7075,21 +9069,21 @@
         <v>11.2</v>
       </c>
       <c r="E41">
-        <f>C41*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>403.38710341496568</v>
       </c>
       <c r="F41">
-        <f>(C41-B41)^2</f>
+        <f t="shared" si="2"/>
         <v>484</v>
       </c>
       <c r="G41">
-        <f>(E41-B41)^2</f>
+        <f t="shared" si="3"/>
         <v>11.472469543672167</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>B42+$I$2</f>
+        <f t="shared" si="4"/>
         <v>767</v>
       </c>
       <c r="B42">
@@ -7102,21 +9096,21 @@
         <v>10.7</v>
       </c>
       <c r="E42">
-        <f>C42*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>413.03735407091727</v>
       </c>
       <c r="F42">
-        <f>(C42-B42)^2</f>
+        <f t="shared" si="2"/>
         <v>484</v>
       </c>
       <c r="G42">
-        <f>(E42-B42)^2</f>
+        <f t="shared" si="3"/>
         <v>9.225519752117739</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>B43+$I$2</f>
+        <f t="shared" si="4"/>
         <v>777</v>
       </c>
       <c r="B43">
@@ -7129,21 +9123,21 @@
         <v>12.6</v>
       </c>
       <c r="E43">
-        <f>C43*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>422.68760472686887</v>
       </c>
       <c r="F43">
-        <f>(C43-B43)^2</f>
+        <f t="shared" si="2"/>
         <v>484</v>
       </c>
       <c r="G43">
-        <f>(E43-B43)^2</f>
+        <f t="shared" si="3"/>
         <v>7.2232191678878905</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>B44+$I$2</f>
+        <f t="shared" si="4"/>
         <v>787</v>
       </c>
       <c r="B44">
@@ -7156,21 +9150,21 @@
         <v>13.3</v>
       </c>
       <c r="E44">
-        <f>C44*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>432.33785538282046</v>
       </c>
       <c r="F44">
-        <f>(C44-B44)^2</f>
+        <f t="shared" si="2"/>
         <v>484</v>
       </c>
       <c r="G44">
-        <f>(E44-B44)^2</f>
+        <f t="shared" si="3"/>
         <v>5.4655677909826208</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>B45+$I$2</f>
+        <f t="shared" si="4"/>
         <v>837</v>
       </c>
       <c r="B45">
@@ -7183,21 +9177,21 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E45">
-        <f>C45*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>483.48418385936395</v>
       </c>
       <c r="F45">
-        <f>(C45-B45)^2</f>
+        <f t="shared" si="2"/>
         <v>625</v>
       </c>
       <c r="G45">
-        <f>(E45-B45)^2</f>
+        <f t="shared" si="3"/>
         <v>12.139537165852285</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>B46+$I$2</f>
+        <f t="shared" si="4"/>
         <v>887</v>
       </c>
       <c r="B46">
@@ -7210,21 +9204,21 @@
         <v>22</v>
       </c>
       <c r="E46">
-        <f>C46*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>533.66548727031227</v>
       </c>
       <c r="F46">
-        <f>(C46-B46)^2</f>
+        <f t="shared" si="2"/>
         <v>729</v>
       </c>
       <c r="G46">
-        <f>(E46-B46)^2</f>
+        <f t="shared" si="3"/>
         <v>13.43579692882129</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>B47+$I$2</f>
+        <f t="shared" si="4"/>
         <v>937</v>
       </c>
       <c r="B47">
@@ -7237,21 +9231,21 @@
         <v>35.5</v>
       </c>
       <c r="E47">
-        <f>C47*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>581.91674055007036</v>
       </c>
       <c r="F47">
-        <f>(C47-B47)^2</f>
+        <f t="shared" si="2"/>
         <v>729</v>
       </c>
       <c r="G47">
-        <f>(E47-B47)^2</f>
+        <f t="shared" si="3"/>
         <v>3.6738943362840186</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>B48+$I$2</f>
+        <f t="shared" si="4"/>
         <v>987</v>
       </c>
       <c r="B48">
@@ -7264,21 +9258,21 @@
         <v>42</v>
       </c>
       <c r="E48">
-        <f>C48*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>632.09804396101867</v>
       </c>
       <c r="F48">
-        <f>(C48-B48)^2</f>
+        <f t="shared" si="2"/>
         <v>841</v>
       </c>
       <c r="G48">
-        <f>(E48-B48)^2</f>
+        <f t="shared" si="3"/>
         <v>4.4017884623669312</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>B49+$I$2</f>
+        <f t="shared" si="4"/>
         <v>1037</v>
       </c>
       <c r="B49">
@@ -7291,21 +9285,21 @@
         <v>57</v>
       </c>
       <c r="E49">
-        <f>C49*$I$8+$I$11</f>
+        <f t="shared" si="1"/>
         <v>681.31432230637176</v>
       </c>
       <c r="F49">
-        <f>(C49-B49)^2</f>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="G49">
-        <f>(E49-B49)^2</f>
+        <f t="shared" si="3"/>
         <v>1.7274431250263935</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>B50+$I$2</f>
+        <f t="shared" si="4"/>
         <v>1087</v>
       </c>
       <c r="B50">
@@ -7318,21 +9312,21 @@
         <v>70</v>
       </c>
       <c r="E50">
-        <f t="shared" ref="E50:E58" si="0">C50*$I$8+$I$11</f>
+        <f t="shared" ref="E50:E58" si="5">C50*$I$8+$I$11</f>
         <v>730.53060065172497</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F58" si="1">(C50-B50)^2</f>
+        <f t="shared" ref="F50:F58" si="6">(C50-B50)^2</f>
         <v>961</v>
       </c>
       <c r="G50">
-        <f t="shared" ref="G50:G58" si="2">(E50-B50)^2</f>
+        <f t="shared" ref="G50:G58" si="7">(E50-B50)^2</f>
         <v>0.28153705161095982</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>B51+$I$2</f>
+        <f t="shared" si="4"/>
         <v>1137</v>
       </c>
       <c r="B51">
@@ -7345,21 +9339,21 @@
         <v>88</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>778.78185393148294</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>961</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1.4838798442435643</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>B52+$I$2</f>
+        <f t="shared" si="4"/>
         <v>1187</v>
       </c>
       <c r="B52">
@@ -7372,21 +9366,21 @@
         <v>121</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>827.03310721124103</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>961</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8.8024528199899716</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>B53+$I$2</f>
+        <f t="shared" si="4"/>
         <v>1237</v>
       </c>
       <c r="B53">
@@ -7399,21 +9393,21 @@
         <v>170</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>874.31933542540389</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>32.269950009071181</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>B54+$I$2</f>
+        <f t="shared" si="4"/>
         <v>1287</v>
       </c>
       <c r="B54">
@@ -7426,21 +9420,21 @@
         <v>196</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>922.57058870516187</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>55.196152187868421</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>B55+$I$2</f>
+        <f t="shared" si="4"/>
         <v>1297</v>
       </c>
       <c r="B55">
@@ -7453,21 +9447,21 @@
         <v>211</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>932.22083936111346</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>60.5153402456016</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>B56+$I$2</f>
+        <f t="shared" si="4"/>
         <v>1307</v>
       </c>
       <c r="B56">
@@ -7480,21 +9474,21 @@
         <v>190</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>940.90606495146994</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>841</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>82.699654666883362</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>B57+$I$2</f>
+        <f t="shared" si="4"/>
         <v>1317</v>
       </c>
       <c r="B57">
@@ -7507,21 +9501,21 @@
         <v>148</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>948.6262654762312</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>729</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>129.36183701717036</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>B58+$I$2</f>
+        <f t="shared" si="4"/>
         <v>1327</v>
       </c>
       <c r="B58">
@@ -7534,15 +9528,15 @@
         <v>77</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>955.38144093539734</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>576</v>
       </c>
       <c r="G58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>213.7022691252767</v>
       </c>
     </row>
@@ -7559,16 +9553,16 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7582,9 +9576,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>B2+$E$2</f>
+        <f t="shared" ref="A2:A33" si="0">B2+$E$2</f>
         <v>357</v>
       </c>
       <c r="B2">
@@ -7597,9 +9591,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>B3+$E$2</f>
+        <f t="shared" si="0"/>
         <v>367</v>
       </c>
       <c r="B3">
@@ -7610,9 +9604,9 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>B4+$E$2</f>
+        <f t="shared" si="0"/>
         <v>377</v>
       </c>
       <c r="B4">
@@ -7628,9 +9622,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>B5+$E$2</f>
+        <f t="shared" si="0"/>
         <v>387</v>
       </c>
       <c r="B5">
@@ -7643,9 +9637,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>B6+$E$2</f>
+        <f t="shared" si="0"/>
         <v>397</v>
       </c>
       <c r="B6">
@@ -7655,9 +9649,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>B7+$E$2</f>
+        <f t="shared" si="0"/>
         <v>407</v>
       </c>
       <c r="B7">
@@ -7670,9 +9664,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>B8+$E$2</f>
+        <f t="shared" si="0"/>
         <v>417</v>
       </c>
       <c r="B8">
@@ -7682,13 +9676,13 @@
         <v>65</v>
       </c>
       <c r="E8">
-        <f>'Partial data'!I8</f>
+        <f>'Partial data'!J8</f>
         <v>0.96502506559516021</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>B9+$E$2</f>
+        <f t="shared" si="0"/>
         <v>427</v>
       </c>
       <c r="B9">
@@ -7698,9 +9692,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>B10+$E$2</f>
+        <f t="shared" si="0"/>
         <v>437</v>
       </c>
       <c r="B10">
@@ -7713,9 +9707,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>B11+$E$2</f>
+        <f t="shared" si="0"/>
         <v>447</v>
       </c>
       <c r="B11">
@@ -7725,13 +9719,13 @@
         <v>95</v>
       </c>
       <c r="E11">
-        <f>'Partial data'!I11</f>
+        <f>'Partial data'!J11</f>
         <v>-3.8534742661919381</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>B12+$E$2</f>
+        <f t="shared" si="0"/>
         <v>457</v>
       </c>
       <c r="B12">
@@ -7741,9 +9735,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>B13+$E$2</f>
+        <f t="shared" si="0"/>
         <v>467</v>
       </c>
       <c r="B13">
@@ -7756,9 +9750,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>B14+$E$2</f>
+        <f t="shared" si="0"/>
         <v>477</v>
       </c>
       <c r="B14">
@@ -7772,9 +9766,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>B15+$E$2</f>
+        <f t="shared" si="0"/>
         <v>487</v>
       </c>
       <c r="B15">
@@ -7784,9 +9778,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>B16+$E$2</f>
+        <f t="shared" si="0"/>
         <v>497</v>
       </c>
       <c r="B16">
@@ -7799,9 +9793,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>B17+$E$2</f>
+        <f t="shared" si="0"/>
         <v>507</v>
       </c>
       <c r="B17">
@@ -7815,9 +9809,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>B18+$E$2</f>
+        <f t="shared" si="0"/>
         <v>517</v>
       </c>
       <c r="B18">
@@ -7827,9 +9821,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>B19+$E$2</f>
+        <f t="shared" si="0"/>
         <v>527</v>
       </c>
       <c r="B19">
@@ -7839,9 +9833,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>B20+$E$2</f>
+        <f t="shared" si="0"/>
         <v>537</v>
       </c>
       <c r="B20">
@@ -7851,9 +9845,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>B21+$E$2</f>
+        <f t="shared" si="0"/>
         <v>547</v>
       </c>
       <c r="B21">
@@ -7863,9 +9857,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>B22+$E$2</f>
+        <f t="shared" si="0"/>
         <v>557</v>
       </c>
       <c r="B22">
@@ -7875,9 +9869,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>B23+$E$2</f>
+        <f t="shared" si="0"/>
         <v>567</v>
       </c>
       <c r="B23">
@@ -7887,9 +9881,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>B24+$E$2</f>
+        <f t="shared" si="0"/>
         <v>577</v>
       </c>
       <c r="B24">
@@ -7899,9 +9893,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>B25+$E$2</f>
+        <f t="shared" si="0"/>
         <v>587</v>
       </c>
       <c r="B25">
@@ -7911,9 +9905,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>B26+$E$2</f>
+        <f t="shared" si="0"/>
         <v>597</v>
       </c>
       <c r="B26">
@@ -7923,9 +9917,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>B27+$E$2</f>
+        <f t="shared" si="0"/>
         <v>607</v>
       </c>
       <c r="B27">
@@ -7935,9 +9929,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>B28+$E$2</f>
+        <f t="shared" si="0"/>
         <v>617</v>
       </c>
       <c r="B28">
@@ -7947,9 +9941,9 @@
         <v>273</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>B29+$E$2</f>
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
       <c r="B29">
@@ -7959,9 +9953,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>B30+$E$2</f>
+        <f t="shared" si="0"/>
         <v>637</v>
       </c>
       <c r="B30">
@@ -7971,9 +9965,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>B31+$E$2</f>
+        <f t="shared" si="0"/>
         <v>647</v>
       </c>
       <c r="B31">
@@ -7983,9 +9977,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>B32+$E$2</f>
+        <f t="shared" si="0"/>
         <v>657</v>
       </c>
       <c r="B32">
@@ -7995,9 +9989,9 @@
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>B33+$E$2</f>
+        <f t="shared" si="0"/>
         <v>667</v>
       </c>
       <c r="B33">
@@ -8007,9 +10001,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>B34+$E$2</f>
+        <f t="shared" ref="A34:A65" si="1">B34+$E$2</f>
         <v>677</v>
       </c>
       <c r="B34">
@@ -8019,9 +10013,9 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>B35+$E$2</f>
+        <f t="shared" si="1"/>
         <v>687</v>
       </c>
       <c r="B35">
@@ -8031,9 +10025,9 @@
         <v>348</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>B36+$E$2</f>
+        <f t="shared" si="1"/>
         <v>697</v>
       </c>
       <c r="B36">
@@ -8043,9 +10037,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>B37+$E$2</f>
+        <f t="shared" si="1"/>
         <v>707</v>
       </c>
       <c r="B37">
@@ -8055,9 +10049,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>B38+$E$2</f>
+        <f t="shared" si="1"/>
         <v>717</v>
       </c>
       <c r="B38">
@@ -8067,9 +10061,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>B39+$E$2</f>
+        <f t="shared" si="1"/>
         <v>727</v>
       </c>
       <c r="B39">
@@ -8079,9 +10073,9 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>B40+$E$2</f>
+        <f t="shared" si="1"/>
         <v>737</v>
       </c>
       <c r="B40">
@@ -8091,9 +10085,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>B41+$E$2</f>
+        <f t="shared" si="1"/>
         <v>747</v>
       </c>
       <c r="B41">
@@ -8103,9 +10097,9 @@
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>B42+$E$2</f>
+        <f t="shared" si="1"/>
         <v>757</v>
       </c>
       <c r="B42">
@@ -8115,9 +10109,9 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>B43+$E$2</f>
+        <f t="shared" si="1"/>
         <v>767</v>
       </c>
       <c r="B43">
@@ -8127,9 +10121,9 @@
         <v>432</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>B44+$E$2</f>
+        <f t="shared" si="1"/>
         <v>777</v>
       </c>
       <c r="B44">
@@ -8139,9 +10133,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>B45+$E$2</f>
+        <f t="shared" si="1"/>
         <v>787</v>
       </c>
       <c r="B45">
@@ -8151,9 +10145,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>B46+$E$2</f>
+        <f t="shared" si="1"/>
         <v>837</v>
       </c>
       <c r="B46">
@@ -8163,9 +10157,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>B47+$E$2</f>
+        <f t="shared" si="1"/>
         <v>887</v>
       </c>
       <c r="B47">
@@ -8175,9 +10169,9 @@
         <v>557</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>B48+$E$2</f>
+        <f t="shared" si="1"/>
         <v>937</v>
       </c>
       <c r="B48">
@@ -8187,9 +10181,9 @@
         <v>607</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>B49+$E$2</f>
+        <f t="shared" si="1"/>
         <v>987</v>
       </c>
       <c r="B49">
@@ -8199,9 +10193,9 @@
         <v>659</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>B50+$E$2</f>
+        <f t="shared" si="1"/>
         <v>1037</v>
       </c>
       <c r="B50">
@@ -8211,9 +10205,9 @@
         <v>710</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>B51+$E$2</f>
+        <f t="shared" si="1"/>
         <v>1087</v>
       </c>
       <c r="B51">
@@ -8223,9 +10217,9 @@
         <v>761</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>B52+$E$2</f>
+        <f t="shared" si="1"/>
         <v>1137</v>
       </c>
       <c r="B52">
@@ -8235,9 +10229,9 @@
         <v>811</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>B53+$E$2</f>
+        <f t="shared" si="1"/>
         <v>1187</v>
       </c>
       <c r="B53">
@@ -8247,9 +10241,9 @@
         <v>861</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>B54+$E$2</f>
+        <f t="shared" si="1"/>
         <v>1237</v>
       </c>
       <c r="B54">
@@ -8259,9 +10253,9 @@
         <v>910</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>B55+$E$2</f>
+        <f t="shared" si="1"/>
         <v>1287</v>
       </c>
       <c r="B55">
@@ -8271,9 +10265,9 @@
         <v>960</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>B56+$E$2</f>
+        <f t="shared" si="1"/>
         <v>1297</v>
       </c>
       <c r="B56">
@@ -8283,9 +10277,9 @@
         <v>970</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>B57+$E$2</f>
+        <f t="shared" si="1"/>
         <v>1307</v>
       </c>
       <c r="B57">
@@ -8295,9 +10289,9 @@
         <v>979</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>B58+$E$2</f>
+        <f t="shared" si="1"/>
         <v>1317</v>
       </c>
       <c r="B58">
@@ -8307,9 +10301,9 @@
         <v>987</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>B59+$E$2</f>
+        <f t="shared" si="1"/>
         <v>1327</v>
       </c>
       <c r="B59">
